--- a/dataset/哈利波特/output/角色统计/哈利波特与密室 第12章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与密室 第12章 角色统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>角色</t>
   </si>
@@ -46,12 +46,12 @@
     <t>洛哈特</t>
   </si>
   <si>
+    <t>海格</t>
+  </si>
+  <si>
     <t>纳威</t>
   </si>
   <si>
-    <t>海格</t>
-  </si>
-  <si>
     <t>德拉科</t>
   </si>
   <si>
@@ -73,18 +73,18 @@
     <t>高尔</t>
   </si>
   <si>
+    <t>隆巴顿</t>
+  </si>
+  <si>
+    <t>神秘人</t>
+  </si>
+  <si>
+    <t>哭泣的桃金娘</t>
+  </si>
+  <si>
     <t>邓布利多</t>
   </si>
   <si>
-    <t>哭泣的桃金娘</t>
-  </si>
-  <si>
-    <t>神秘人</t>
-  </si>
-  <si>
-    <t>隆巴顿</t>
-  </si>
-  <si>
     <t>庞弗雷夫人</t>
   </si>
   <si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>达力</t>
+  </si>
+  <si>
+    <t>斯普劳特</t>
   </si>
   <si>
     <t>德思礼</t>
@@ -458,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +565,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -573,7 +576,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -606,7 +609,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -661,7 +664,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -672,7 +675,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -683,7 +686,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -694,7 +697,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -749,7 +752,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -760,12 +763,23 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
     </row>
